--- a/plots/basic_stats/two_var_stats/allmus_size_vs_governance_simpl.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_size_vs_governance_simpl.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C2">
-        <v>1955</v>
+        <v>2016</v>
       </c>
       <c r="D2">
         <v>46</v>
       </c>
       <c r="E2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C3">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="D3">
         <v>44</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -429,10 +429,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C4">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -451,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
